--- a/Daily Updated COVID Data/maine_covid_summary.xlsx
+++ b/Daily Updated COVID Data/maine_covid_summary.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,6 +658,374 @@
       </c>
       <c r="E10" t="n">
         <v>9040</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Other Race</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Two or more</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>10371</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Other Race</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Two or more</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>10371</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,6 +1138,144 @@
         <v>1996</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>10667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>10667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2020-12-06</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Daily Updated COVID Data/maine_covid_summary.xlsx
+++ b/Daily Updated COVID Data/maine_covid_summary.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1210,6 +1210,209 @@
       </c>
       <c r="E34" t="n">
         <v>11827</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Other Race</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Two or more</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>12146</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1531,7 +1734,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1554,7 +1757,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1577,7 +1780,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1596,6 +1799,75 @@
       </c>
       <c r="E16" t="n">
         <v>2954</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>12216</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3053</v>
       </c>
     </row>
   </sheetData>

--- a/Daily Updated COVID Data/maine_covid_summary.xlsx
+++ b/Daily Updated COVID Data/maine_covid_summary.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
@@ -1233,7 +1233,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1413,6 +1413,209 @@
       </c>
       <c r="E43" t="n">
         <v>12146</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Other Race</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Two or more</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>12356</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1803,7 +2006,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1826,7 +2029,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1849,7 +2052,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1868,6 +2071,75 @@
       </c>
       <c r="E19" t="n">
         <v>3053</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>12428</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3138</v>
       </c>
     </row>
   </sheetData>

--- a/Daily Updated COVID Data/maine_covid_summary.xlsx
+++ b/Daily Updated COVID Data/maine_covid_summary.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
@@ -1436,7 +1436,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1616,6 +1616,209 @@
       </c>
       <c r="E52" t="n">
         <v>12356</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Other Race</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Two or more</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>12693</v>
       </c>
     </row>
   </sheetData>
@@ -1629,7 +1832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2075,7 +2278,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2098,7 +2301,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2121,7 +2324,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2140,6 +2343,75 @@
       </c>
       <c r="E22" t="n">
         <v>3138</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>12722</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2020-12-14</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2020-12-13</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3266</v>
       </c>
     </row>
   </sheetData>

--- a/Daily Updated COVID Data/maine_covid_summary.xlsx
+++ b/Daily Updated COVID Data/maine_covid_summary.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
@@ -1639,7 +1639,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1819,6 +1819,209 @@
       </c>
       <c r="E61" t="n">
         <v>12693</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Other Race</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Two or more</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>13427</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +2035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2347,7 +2550,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2370,7 +2573,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2393,7 +2596,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2412,6 +2615,75 @@
       </c>
       <c r="E25" t="n">
         <v>3266</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>13332</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2020-12-16</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3609</v>
       </c>
     </row>
   </sheetData>

--- a/Daily Updated COVID Data/maine_covid_summary.xlsx
+++ b/Daily Updated COVID Data/maine_covid_summary.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
@@ -1842,7 +1842,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2022,6 +2022,209 @@
       </c>
       <c r="E70" t="n">
         <v>13427</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Not disclosed</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Other Race</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Two or more</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>14652</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,7 +2822,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2642,7 +2845,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2665,7 +2868,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2684,6 +2887,75 @@
       </c>
       <c r="E28" t="n">
         <v>3609</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>14416</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
